--- a/SQL/BD/Diccionario de Datos.xlsx
+++ b/SQL/BD/Diccionario de Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aissa\OneDrive\Documentos\ISC06C\SQL\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9BA1DE-321A-4944-B134-027F94A91D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC445DA9-F8FD-4D84-85B0-9D65F555E2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="172">
   <si>
     <t>Nombre de la Base de datos</t>
   </si>
@@ -388,15 +388,6 @@
     <t>Lbo_Titulo</t>
   </si>
   <si>
-    <t>Lbo_Autor</t>
-  </si>
-  <si>
-    <t>Lbo_Genero</t>
-  </si>
-  <si>
-    <t>Lbo_Editorial</t>
-  </si>
-  <si>
     <t>Lbo_Stock</t>
   </si>
   <si>
@@ -412,12 +403,6 @@
     <t>Pro_PrestamoID</t>
   </si>
   <si>
-    <t>Pro_Alumno</t>
-  </si>
-  <si>
-    <t>Pro_Libro</t>
-  </si>
-  <si>
     <t>Pro_FechaPrestamo</t>
   </si>
   <si>
@@ -439,9 +424,6 @@
     <t>Unico, no vacio, mayusculas, no en blanco, no espacios al principio y al final</t>
   </si>
   <si>
-    <t>Unico, no vacio</t>
-  </si>
-  <si>
     <t>El identificador del libro</t>
   </si>
   <si>
@@ -542,6 +524,27 @@
   </si>
   <si>
     <t>No debe estar en banco o vacio, no puede ser 0 y mayor de 10</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>No vacio, mayusculas, no en blanco, no espacios al principio y al final</t>
+  </si>
+  <si>
+    <t>Lbo_AutorID</t>
+  </si>
+  <si>
+    <t>Lbo_GeneroID</t>
+  </si>
+  <si>
+    <t>Lbo_EditorialID</t>
+  </si>
+  <si>
+    <t>Pro_AlumnoID</t>
+  </si>
+  <si>
+    <t>Pro_LibroID</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,28 +985,31 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1710,33 +1716,33 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="33">
         <v>45878</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1750,32 +1756,32 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="36"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1789,101 +1795,95 @@
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="34"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="34"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E9"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
@@ -1892,6 +1892,12 @@
     <mergeCell ref="D17:E18"/>
     <mergeCell ref="D19:E20"/>
     <mergeCell ref="D13:E14"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -1926,7 +1932,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
@@ -2104,7 +2110,7 @@
     </row>
     <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>93</v>
@@ -2128,7 +2134,7 @@
     </row>
     <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>93</v>
@@ -2168,7 +2174,7 @@
         <v>97</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H15" s="23" t="s">
         <v>110</v>
@@ -2214,7 +2220,7 @@
         <v>103</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H17" s="23" t="s">
         <v>113</v>
@@ -2231,14 +2237,14 @@
       <c r="D18" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="23">
-        <v>2</v>
+      <c r="E18" s="46" t="s">
+        <v>165</v>
       </c>
       <c r="F18" s="23">
         <v>6</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H18" s="23" t="s">
         <v>114</v>
@@ -2272,7 +2278,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2370,7 +2376,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
@@ -2388,18 +2394,18 @@
         <v>100</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>93</v>
@@ -2415,15 +2421,15 @@
         <v>49</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>93</v>
@@ -2439,15 +2445,15 @@
         <v>49</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>93</v>
@@ -2463,15 +2469,15 @@
         <v>49</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23" t="s">
@@ -2485,15 +2491,15 @@
         <v>49</v>
       </c>
       <c r="G14" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>136</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23" t="s">
@@ -2506,13 +2512,13 @@
         <v>100</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +2546,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2560,7 +2566,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -2576,7 +2582,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -2619,7 +2625,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>92</v>
@@ -2638,12 +2644,12 @@
         <v>41</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>93</v>
@@ -2659,15 +2665,15 @@
         <v>49</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>93</v>
@@ -2683,59 +2689,59 @@
         <v>49</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="28" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="28" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="28" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="28" t="s">
@@ -2749,22 +2755,22 @@
         <v>112</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="28" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
@@ -2772,7 +2778,7 @@
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3135,7 +3141,7 @@
     </row>
     <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>50</v>
@@ -3155,7 +3161,7 @@
     </row>
     <row r="12" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>50</v>
@@ -3175,7 +3181,7 @@
     </row>
     <row r="13" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>50</v>
@@ -3344,7 +3350,7 @@
     </row>
     <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>50</v>
@@ -3364,7 +3370,7 @@
     </row>
     <row r="12" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>50</v>
@@ -3384,7 +3390,7 @@
     </row>
     <row r="13" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>50</v>
@@ -3553,7 +3559,7 @@
     </row>
     <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>50</v>
@@ -3573,7 +3579,7 @@
     </row>
     <row r="12" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>50</v>
@@ -3593,7 +3599,7 @@
     </row>
     <row r="13" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>50</v>
@@ -3762,7 +3768,7 @@
     </row>
     <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>50</v>
@@ -3782,7 +3788,7 @@
     </row>
     <row r="12" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>50</v>
@@ -3802,7 +3808,7 @@
     </row>
     <row r="13" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>50</v>

--- a/SQL/BD/Diccionario de Datos.xlsx
+++ b/SQL/BD/Diccionario de Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aissa\OneDrive\Documentos\ISC06C\SQL\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC445DA9-F8FD-4D84-85B0-9D65F555E2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C26AC34-8558-4912-8EE9-4A956EA03DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="190">
   <si>
     <t>Nombre de la Base de datos</t>
   </si>
@@ -545,6 +545,60 @@
   </si>
   <si>
     <t>Pro_LibroID</t>
+  </si>
+  <si>
+    <t>Alo_FechaCreacion</t>
+  </si>
+  <si>
+    <t>Alo_FechaModificacion</t>
+  </si>
+  <si>
+    <t>Alo_FechaEliminacion</t>
+  </si>
+  <si>
+    <t>Fecha de creacion del alumno</t>
+  </si>
+  <si>
+    <t>Fecha de modificacion del alumno</t>
+  </si>
+  <si>
+    <t>Fecha de eliminacion del alumno</t>
+  </si>
+  <si>
+    <t>Fecha de creacion del libro</t>
+  </si>
+  <si>
+    <t>Fecha de modificacion del libro</t>
+  </si>
+  <si>
+    <t>Fecha de eliminacion del libro</t>
+  </si>
+  <si>
+    <t>Fecha de creacion del prestamo</t>
+  </si>
+  <si>
+    <t>Fecha de modificacion del prestamo</t>
+  </si>
+  <si>
+    <t>Fecha de eliminacion del prestamo</t>
+  </si>
+  <si>
+    <t>Lbo_FechaCreacion</t>
+  </si>
+  <si>
+    <t>Lbo_FechaModificacion</t>
+  </si>
+  <si>
+    <t>Lbo_FechaEliminacion</t>
+  </si>
+  <si>
+    <t>Pro_FechaCreacion</t>
+  </si>
+  <si>
+    <t>Pro_FechaModificacion</t>
+  </si>
+  <si>
+    <t>Pro_FechaEliminacion</t>
   </si>
 </sst>
 </file>
@@ -985,6 +1039,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1007,9 +1064,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1182,12 +1236,45 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1215,40 +1302,7 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1353,7 +1407,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="T_" displayName="T_" ref="A8:H18" headerRowCount="0" headerRowDxfId="87" dataDxfId="86" totalsRowDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="T_" displayName="T_" ref="A8:H21" headerRowCount="0" headerRowDxfId="87" dataDxfId="86" totalsRowDxfId="85">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="84"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="83"/>
@@ -1374,7 +1428,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{620F5578-179E-4608-B55E-F5DA2CF55BAE}" name="T__8" displayName="T__8" ref="A8:H15" headerRowCount="0" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{620F5578-179E-4608-B55E-F5DA2CF55BAE}" name="T__8" displayName="T__8" ref="A8:H18" headerRowCount="0" headerRowDxfId="76" dataDxfId="75" totalsRowDxfId="74">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C6EAC986-C4E5-4AB4-B34D-7011C5A6D36D}" name="Column1" dataDxfId="73"/>
     <tableColumn id="2" xr3:uid="{6B808435-31F4-4835-A6E1-328D0B93BB5B}" name="Column2" dataDxfId="72"/>
@@ -1390,7 +1444,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E73D538E-68BA-435A-9FE0-08D2A6197365}" name="T__89" displayName="T__89" ref="A8:H15" headerRowCount="0" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E73D538E-68BA-435A-9FE0-08D2A6197365}" name="T__89" displayName="T__89" ref="A8:H18" headerRowCount="0" headerRowDxfId="65" dataDxfId="64" totalsRowDxfId="63">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{E693E266-D9D5-4F60-B565-B03784C375F1}" name="Column1" dataDxfId="62"/>
     <tableColumn id="2" xr3:uid="{8848AFC3-5FB1-4C73-A718-02BCB42F62DE}" name="Column2" dataDxfId="61"/>
@@ -1716,33 +1770,33 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="34">
         <v>45878</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1756,32 +1810,32 @@
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1795,92 +1849,92 @@
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="42"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="42"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="43"/>
     </row>
     <row r="19" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="42"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1929,13 +1983,13 @@
     <tabColor rgb="FF356854"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1947,7 +2001,7 @@
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -2032,7 +2086,7 @@
       <c r="G9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="24" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2056,7 +2110,7 @@
       <c r="G10" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="24" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2080,7 +2134,7 @@
       <c r="G11" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="24" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2104,7 +2158,7 @@
       <c r="G12" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="24" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2128,7 +2182,7 @@
       <c r="G13" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="24" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2152,7 +2206,7 @@
       <c r="G14" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="24" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2176,7 +2230,7 @@
       <c r="G15" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="24" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2198,7 +2252,7 @@
       <c r="G16" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="24" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2222,7 +2276,7 @@
       <c r="G17" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="24" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2237,7 +2291,7 @@
       <c r="D18" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="30" t="s">
         <v>165</v>
       </c>
       <c r="F18" s="23">
@@ -2246,8 +2300,74 @@
       <c r="G18" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="24" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2272,13 +2392,13 @@
     <tabColor rgb="FF356854"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2290,7 +2410,7 @@
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -2375,7 +2495,7 @@
       <c r="G9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="27" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2399,7 +2519,7 @@
       <c r="G10" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="27" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2423,7 +2543,7 @@
       <c r="G11" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="27" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2447,7 +2567,7 @@
       <c r="G12" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2471,7 +2591,7 @@
       <c r="G13" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="27" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2493,7 +2613,7 @@
       <c r="G14" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="27" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2517,8 +2637,74 @@
       <c r="G15" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="27" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2540,13 +2726,13 @@
     <tabColor rgb="FF356854"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2744,7 @@
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.77734375" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
@@ -2643,7 +2829,7 @@
       <c r="G9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="27" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2667,7 +2853,7 @@
       <c r="G10" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="27" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2691,7 +2877,7 @@
       <c r="G11" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="27" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2713,11 +2899,11 @@
       <c r="G12" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>125</v>
       </c>
@@ -2735,7 +2921,7 @@
       <c r="G13" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="27" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2757,7 +2943,7 @@
       <c r="G14" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="27" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2777,8 +2963,74 @@
         <v>48</v>
       </c>
       <c r="G15" s="27"/>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="27" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
